--- a/cbrunner/Parameters/Parameters_Decomposition.xlsx
+++ b/cbrunner/Parameters/Parameters_Decomposition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49609AB-BEEF-47A0-95EF-55F5C330B896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D56193-3BBB-4A52-BBEF-547E645826EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{6C794AC9-5230-4D55-AEEE-1DE0AE235631}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{6C794AC9-5230-4D55-AEEE-1DE0AE235631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -148,6 +150,21 @@
   </si>
   <si>
     <t>FelledSnagBranch</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Kurz et al (2009)</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Use this:</t>
   </si>
 </sst>
 </file>
@@ -194,12 +211,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -229,6 +252,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -545,25 +571,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13D509-E7D5-401A-89FD-047231683D40}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -579,10 +605,19 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -598,9 +633,20 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H11" si="0">B3*C3^((G3-10)/10)</f>
+        <v>0.19782484252765944</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -616,9 +662,20 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4674692597955162E-2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -634,9 +691,20 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4674797931453128E-2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -652,9 +720,20 @@
       <c r="E6" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3587961631405409E-3</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -670,9 +749,20 @@
       <c r="E7" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2337398965726564E-2</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -688,9 +778,23 @@
       <c r="E8" s="3">
         <v>0.1</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7337346298977581E-2</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -706,9 +810,23 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.32987697769322361</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -724,9 +842,24 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4674692597955162E-2</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10">
+        <f>AVERAGE(K8:K9)</f>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -742,9 +875,26 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3E-3</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <f>1/K10</f>
+        <v>0.46511627906976744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -761,8 +911,17 @@
         <f>1/35</f>
         <v>2.8571428571428571E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -779,8 +938,17 @@
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -797,8 +965,17 @@
         <f>1/5</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -815,8 +992,17 @@
         <f>1/2</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -833,8 +1019,17 @@
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -851,6 +1046,21 @@
         <f>1/2</f>
         <v>0.5</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_Decomposition.xlsx
+++ b/cbrunner/Parameters/Parameters_Decomposition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D56193-3BBB-4A52-BBEF-547E645826EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120F32BE-38C7-4623-BE87-6108BAA809D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{6C794AC9-5230-4D55-AEEE-1DE0AE235631}"/>
+    <workbookView xWindow="8400" yWindow="852" windowWidth="13788" windowHeight="11208" xr2:uid="{6C794AC9-5230-4D55-AEEE-1DE0AE235631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>Hember, Robert FLNR:EX</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{AA6AB110-49F6-4258-BBB0-EBED77B76ED2}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AA6AB110-49F6-4258-BBB0-EBED77B76ED2}">
       <text>
         <r>
           <rPr>
@@ -67,30 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Table X. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Decomposition parameters.</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Name_Pool</t>
   </si>
@@ -174,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,14 +162,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -571,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13D509-E7D5-401A-89FD-047231683D40}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,31 +557,55 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
+      <c r="B2" s="3">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2:H10" si="0">B2*C2^((G2-10)/10)</f>
+        <v>0.19782484252765944</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -622,26 +615,26 @@
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>0.35499999999999998</v>
+        <v>0.14349999999999999</v>
       </c>
       <c r="C3" s="3">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>0.81499999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H11" si="0">B3*C3^((G3-10)/10)</f>
-        <v>0.19782484252765944</v>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4674692597955162E-2</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -651,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>0.14349999999999999</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -663,14 +656,14 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>9.4674692597955162E-2</v>
+        <v>2.4674797931453128E-2</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -680,26 +673,26 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>3.7400000000000003E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="D5" s="4">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>2.4674797931453128E-2</v>
+        <v>8.3587961631405409E-3</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -709,26 +702,26 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="C6" s="3">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E6" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>8.3587961631405409E-3</v>
+        <v>1.2337398965726564E-2</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -738,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3">
-        <v>1.8700000000000001E-2</v>
+        <v>7.1749999999999994E-2</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -747,27 +740,30 @@
         <v>0.83</v>
       </c>
       <c r="E7" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
         <v>4</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>1.2337398965726564E-2</v>
+        <v>4.7337346298977581E-2</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>7.1749999999999994E-2</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -776,22 +772,22 @@
         <v>0.83</v>
       </c>
       <c r="E8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>4.7337346298977581E-2</v>
+        <v>0.32987697769322361</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -799,7 +795,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>0.5</v>
+        <v>0.14349999999999999</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -811,19 +807,20 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.32987697769322361</v>
+        <v>9.4674692597955162E-2</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9">
-        <v>2.8</v>
+        <f>AVERAGE(K7:K8)</f>
+        <v>2.15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -831,32 +828,34 @@
         <v>13</v>
       </c>
       <c r="B10" s="3">
-        <v>0.14349999999999999</v>
+        <v>3.3E-3</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
         <v>4</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>9.4674692597955162E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K10">
-        <f>AVERAGE(K8:K9)</f>
-        <v>2.15</v>
+        <f>1/K9</f>
+        <v>0.46511627906976744</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -864,35 +863,27 @@
         <v>14</v>
       </c>
       <c r="B11" s="3">
-        <v>3.3E-3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <f>1/35</f>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>4</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3E-3</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11">
-        <f>1/K10</f>
-        <v>0.46511627906976744</v>
-      </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -908,11 +899,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <f>1/35</f>
-        <v>2.8571428571428571E-2</v>
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1">
         <v>4</v>
@@ -935,11 +926,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
+        <f>1/5</f>
+        <v>0.2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1">
         <v>4</v>
@@ -962,11 +953,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <f>1/5</f>
-        <v>0.2</v>
+        <f>1/2</f>
+        <v>0.5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
         <v>4</v>
@@ -989,11 +980,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <f>1/2</f>
-        <v>0.5</v>
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -1016,11 +1007,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+        <f>1/2</f>
+        <v>0.5</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1">
         <v>4</v>
@@ -1029,38 +1020,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4</v>
-      </c>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_Decomposition.xlsx
+++ b/cbrunner/Parameters/Parameters_Decomposition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E53EE8-25B7-4957-A04F-FB1A75448FDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E9FF42-DBE1-4D19-A3D3-084871268DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{6C794AC9-5230-4D55-AEEE-1DE0AE235631}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Reference</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Best Estimate</t>
+  </si>
+  <si>
+    <t>Backup BE</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +558,9 @@
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
@@ -578,7 +583,9 @@
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2">
+        <v>0.35499999999999998</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -601,7 +608,9 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="2">
+        <v>0.14349999999999999</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -624,7 +633,9 @@
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2">
+        <v>3.7400000000000003E-2</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -647,7 +658,9 @@
       <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -670,7 +683,9 @@
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2">
+        <v>1.8700000000000001E-2</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -693,7 +708,9 @@
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2">
+        <v>7.1749999999999994E-2</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -716,7 +733,9 @@
       <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2">
+        <v>0.5</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -739,7 +758,9 @@
       <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="2">
+        <v>0.14349999999999999</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -762,7 +783,9 @@
       <c r="F10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="2">
+        <v>3.3E-3</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -786,7 +809,10 @@
       <c r="F11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2">
+        <f>0.75*G4</f>
+        <v>2.8050000000000002E-2</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -809,7 +835,9 @@
       <c r="F12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="2">
+        <v>2.65</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -832,7 +860,9 @@
       <c r="F13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
@@ -855,7 +885,9 @@
       <c r="F14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -878,7 +910,9 @@
       <c r="F15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2">
+        <v>2.65</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -901,7 +935,9 @@
       <c r="F16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -924,7 +960,9 @@
       <c r="F17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -947,6 +985,9 @@
       <c r="F18" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -967,6 +1008,9 @@
       <c r="F19" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -987,6 +1031,9 @@
       <c r="F20" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1008,6 +1055,10 @@
       <c r="F21" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="G21" s="2">
+        <f>G14</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1028,6 +1079,9 @@
       <c r="F22" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1048,6 +1102,9 @@
       <c r="F23" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1068,6 +1125,9 @@
       <c r="F24" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1088,6 +1148,9 @@
       <c r="F25" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G25" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1108,6 +1171,9 @@
       <c r="F26" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G26" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1128,6 +1194,9 @@
       <c r="F27" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G27" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1148,6 +1217,9 @@
       <c r="F28" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1168,6 +1240,9 @@
       <c r="F29" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1188,6 +1263,9 @@
       <c r="F30" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1207,6 +1285,9 @@
       </c>
       <c r="F31" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_Decomposition.xlsx
+++ b/cbrunner/Parameters/Parameters_Decomposition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E9FF42-DBE1-4D19-A3D3-084871268DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF363DCA-9A2B-4624-BD8E-0E4BB84AC768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{6C794AC9-5230-4D55-AEEE-1DE0AE235631}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{6C794AC9-5230-4D55-AEEE-1DE0AE235631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>Reference</t>
   </si>
@@ -56,12 +56,6 @@
     <t>LitterS_R10</t>
   </si>
   <si>
-    <t>SnagStem_R10</t>
-  </si>
-  <si>
-    <t>SnagBranch_R10</t>
-  </si>
-  <si>
     <t>SoilVF_R10</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>SoilS_R10</t>
   </si>
   <si>
-    <t>Piled_R10</t>
-  </si>
-  <si>
     <t>LitterVF_Q10</t>
   </si>
   <si>
@@ -86,12 +77,6 @@
     <t>LitterS_Q10</t>
   </si>
   <si>
-    <t>SnagStem_Q10</t>
-  </si>
-  <si>
-    <t>SnagBranch_Q10</t>
-  </si>
-  <si>
     <t>SoilVF_Q10</t>
   </si>
   <si>
@@ -101,9 +86,6 @@
     <t>SoilS_Q10</t>
   </si>
   <si>
-    <t>Piled_Q10</t>
-  </si>
-  <si>
     <t>LitterVF_PhysTransRate</t>
   </si>
   <si>
@@ -116,12 +98,6 @@
     <t>LitterS_PhysTransRate</t>
   </si>
   <si>
-    <t>SnagStem_PhysTransRate</t>
-  </si>
-  <si>
-    <t>SnagBranch_PhysTransRate</t>
-  </si>
-  <si>
     <t>SoilVF_PhysTransRate</t>
   </si>
   <si>
@@ -131,9 +107,6 @@
     <t>SoilS_PhysTransRate</t>
   </si>
   <si>
-    <t>Piled_PhysTransRate</t>
-  </si>
-  <si>
     <t>Sigma</t>
   </si>
   <si>
@@ -150,14 +123,192 @@
   </si>
   <si>
     <t>Backup BE</t>
+  </si>
+  <si>
+    <t>DeadStemMerch_R10</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerch_R10</t>
+  </si>
+  <si>
+    <t>DeadBranch_R10</t>
+  </si>
+  <si>
+    <t>DeadStemMerch_Q10</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerch_Q10</t>
+  </si>
+  <si>
+    <t>DeadBranch_Q10</t>
+  </si>
+  <si>
+    <t>DeadStemMerch_PhysTransRate</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerch_PhysTransRate</t>
+  </si>
+  <si>
+    <t>DeadBranch_PhysTransRate</t>
+  </si>
+  <si>
+    <t>LitterVFToLitterS</t>
+  </si>
+  <si>
+    <t>Kurz et al. 2009</t>
+  </si>
+  <si>
+    <t>LitterVFToCO2</t>
+  </si>
+  <si>
+    <t>LitterFToLitterS</t>
+  </si>
+  <si>
+    <t>LitterFToCO2</t>
+  </si>
+  <si>
+    <t>LitterMToLitterS</t>
+  </si>
+  <si>
+    <t>LitterMToCO2</t>
+  </si>
+  <si>
+    <t>LitterSToCO2</t>
+  </si>
+  <si>
+    <t>DeadStemMerchToLitterM</t>
+  </si>
+  <si>
+    <t>DeadStemMerchToCO2</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerchToLitterM</t>
+  </si>
+  <si>
+    <t>DeadStemNonMerchToCO2</t>
+  </si>
+  <si>
+    <t>DeadBranchToLitterF</t>
+  </si>
+  <si>
+    <t>DeadBranchToCO2</t>
+  </si>
+  <si>
+    <t>SoilVFToSoilS</t>
+  </si>
+  <si>
+    <t>SoilVFToCO2</t>
+  </si>
+  <si>
+    <t>SoilFToSoilS</t>
+  </si>
+  <si>
+    <t>SoilFToCO2</t>
+  </si>
+  <si>
+    <t>SoilSToCO2</t>
+  </si>
+  <si>
+    <t>PiledStemMerchToCO2</t>
+  </si>
+  <si>
+    <t>PiledStemNonMerchToCO2</t>
+  </si>
+  <si>
+    <t>PiledBarkToCO2</t>
+  </si>
+  <si>
+    <t>PiledBranchToCO2</t>
+  </si>
+  <si>
+    <t>PiledFoliageToCO2</t>
+  </si>
+  <si>
+    <t>PiledDeadStemToCO2</t>
+  </si>
+  <si>
+    <t>PiledDeadBranchToCO2</t>
+  </si>
+  <si>
+    <t>FractionDeadStemThatIsNonMerch</t>
+  </si>
+  <si>
+    <t>Consistent with the fraction of merch to non-merch in TIPSY at age 100</t>
+  </si>
+  <si>
+    <t>PiledStemMerch_R10</t>
+  </si>
+  <si>
+    <t>PiledStemNonMerch_R10</t>
+  </si>
+  <si>
+    <t>PiledBark_R10</t>
+  </si>
+  <si>
+    <t>PiledBranch_R10</t>
+  </si>
+  <si>
+    <t>PiledFoliage_R10</t>
+  </si>
+  <si>
+    <t>PiledDeadStem_R10</t>
+  </si>
+  <si>
+    <t>PiledDeadBranch_R10</t>
+  </si>
+  <si>
+    <t>PiledStemMerch_Q10</t>
+  </si>
+  <si>
+    <t>PiledStemNonMerch_Q10</t>
+  </si>
+  <si>
+    <t>PiledBark_Q10</t>
+  </si>
+  <si>
+    <t>PiledBranch_Q10</t>
+  </si>
+  <si>
+    <t>PiledFoliage_Q10</t>
+  </si>
+  <si>
+    <t>PiledDeadStem_Q10</t>
+  </si>
+  <si>
+    <t>PiledDeadBranch_Q10</t>
+  </si>
+  <si>
+    <t>DeadBark_PhysTransRate</t>
+  </si>
+  <si>
+    <t>DeadBark_R10</t>
+  </si>
+  <si>
+    <t>DeadBark_Q10</t>
+  </si>
+  <si>
+    <t>DeadBarkToLitterF</t>
+  </si>
+  <si>
+    <t>DeadBarkToCO2</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>Not represented</t>
+  </si>
+  <si>
+    <t>Not represented, following stemwood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -196,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -211,6 +362,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,9 +390,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +430,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -375,7 +536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,46 +686,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A13D509-E7D5-401A-89FD-047231683D40}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -589,11 +750,12 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
+        <f>1*G3</f>
         <v>0.14349999999999999</v>
       </c>
       <c r="C3" s="2">
@@ -614,11 +776,12 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
+        <f>1*G4</f>
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="C4" s="2">
@@ -639,7 +802,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -664,11 +827,12 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
+        <f>1*G6</f>
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="C6" s="2">
@@ -689,11 +853,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
+        <f>B8</f>
         <v>7.1749999999999994E-2</v>
       </c>
       <c r="C7" s="2">
@@ -708,18 +873,19 @@
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>7.1749999999999994E-2</v>
+      <c r="G7" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
-        <v>0.5</v>
+        <f>1*G8</f>
+        <v>7.1749999999999994E-2</v>
       </c>
       <c r="C8" s="2">
         <v>0.25</v>
@@ -734,17 +900,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0.5</v>
+        <v>7.1749999999999994E-2</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2">
-        <v>0.14349999999999999</v>
+        <f>B8</f>
+        <v>7.1749999999999994E-2</v>
       </c>
       <c r="C9" s="2">
         <v>0.25</v>
@@ -755,21 +922,17 @@
       <c r="E9" s="2">
         <v>-9999</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.14349999999999999</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>3.3E-3</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="2">
         <v>0.25</v>
@@ -784,511 +947,1487 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>3.3E-3</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2">
         <f>0.75*B4</f>
         <v>2.8050000000000002E-2</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="C13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
         <f>0.75*G4</f>
         <v>2.8050000000000002E-2</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2.65</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2.65</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2">
+        <f>0.75*B5</f>
+        <v>1.125E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <f>0.75*G5</f>
+        <v>1.125E-2</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2">
+        <f>0.75*B6</f>
+        <v>1.4025000000000001E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <f>0.75*G6</f>
+        <v>1.4025000000000001E-2</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2">
+        <f>0.75*B7</f>
+        <v>5.3812499999999999E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="e">
+        <f>0.75*G7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2">
+        <f>0.75*B8</f>
+        <v>5.3812499999999999E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <f>0.75*G8</f>
+        <v>5.3812499999999999E-2</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2">
+        <f>0.75*B10</f>
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <f>0.75*G10</f>
+        <v>0.375</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2">
+        <f>0.75*B11</f>
+        <v>0.107625</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <f>0.75*G11</f>
+        <v>0.107625</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2">
+        <f>B22</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2">
+        <f>G22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B23</f>
         <v>2.65</v>
       </c>
-      <c r="C15" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="C32" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2">
+        <f>G23</f>
         <v>2.65</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B24</f>
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2">
+        <f>G24</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B25</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2">
+        <f>G25</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2">
+        <f>B26</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2">
+        <f>G26</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="2">
+        <f>B28</f>
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2">
+        <f>G28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B29</f>
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2">
+        <f>G29</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="6">
+        <f>1-B39</f>
+        <v>0.18500000000000005</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E39" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E40" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E41" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E42" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E43" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E44" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="E45" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D46" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="E46" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="E47" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="E48" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="8">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="E49" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="E50" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="E51" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="E52" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E53" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E54" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E55" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E56" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="D57" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E57" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="D58" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E58" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="D59" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E59" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="D60" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E60" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="D61" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E61" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="6">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="D62" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E62" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="6">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="D63" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E63" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="6">
+        <v>1</v>
+      </c>
+      <c r="C64" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="D64" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E64" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C65" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="D65" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="E65" s="6">
+        <v>-9999</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="2">
+        <f>2.25*G66</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="2">
+        <f>B66</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B73" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
-        <f>B14</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
-        <f>G14</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>-9999</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
